--- a/biology/Botanique/Tinda/Tinda.xlsx
+++ b/biology/Botanique/Tinda/Tinda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Praecitrullus fistulosus
 Le tinda, ou Praecitrullus fistulosus, est une espèce de plante à fleurs de la famille des Cucurbitaceae, unique espèce du genre Praecitrullus (pt). Plante annuelle originaire d'Inde, elle est cultivée pour ses fruits cueillis avant maturité et consommés comme légume, particulièrement dans les pays du sous-continent indien.
